--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Col5a2</t>
+  </si>
+  <si>
+    <t>Ddr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col5a2</t>
-  </si>
-  <si>
-    <t>Ddr1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.250639</v>
+        <v>8.084047</v>
       </c>
       <c r="H2">
-        <v>9.751916999999999</v>
+        <v>24.252141</v>
       </c>
       <c r="I2">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="J2">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N2">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O2">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P2">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q2">
-        <v>0.7492506185733332</v>
+        <v>4.907237492951333</v>
       </c>
       <c r="R2">
-        <v>6.743255567159999</v>
+        <v>44.16513743656201</v>
       </c>
       <c r="S2">
-        <v>0.0001414411794118453</v>
+        <v>0.001769692099762587</v>
       </c>
       <c r="T2">
-        <v>0.0001414411794118454</v>
+        <v>0.001769692099762587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.250639</v>
+        <v>8.084047</v>
       </c>
       <c r="H3">
-        <v>9.751916999999999</v>
+        <v>24.252141</v>
       </c>
       <c r="I3">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="J3">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q3">
-        <v>14.02265311069233</v>
+        <v>34.87307781994033</v>
       </c>
       <c r="R3">
-        <v>126.203877996231</v>
+        <v>313.857700379463</v>
       </c>
       <c r="S3">
-        <v>0.002647152428430569</v>
+        <v>0.01257624282521481</v>
       </c>
       <c r="T3">
-        <v>0.00264715242843057</v>
+        <v>0.01257624282521481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.250639</v>
+        <v>8.084047</v>
       </c>
       <c r="H4">
-        <v>9.751916999999999</v>
+        <v>24.252141</v>
       </c>
       <c r="I4">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="J4">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N4">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q4">
-        <v>0.9600296361576666</v>
+        <v>2.911270120557334</v>
       </c>
       <c r="R4">
-        <v>8.640266725418998</v>
+        <v>26.20143108501601</v>
       </c>
       <c r="S4">
-        <v>0.0001812313805853399</v>
+        <v>0.00104988840259423</v>
       </c>
       <c r="T4">
-        <v>0.0001812313805853399</v>
+        <v>0.00104988840259423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.250639</v>
+        <v>8.084047</v>
       </c>
       <c r="H5">
-        <v>9.751916999999999</v>
+        <v>24.252141</v>
       </c>
       <c r="I5">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="J5">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N5">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O5">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P5">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q5">
-        <v>38.00965573067366</v>
+        <v>33.59172672893467</v>
       </c>
       <c r="R5">
-        <v>342.0869015760629</v>
+        <v>302.325540560412</v>
       </c>
       <c r="S5">
-        <v>0.00717534347295103</v>
+        <v>0.01211415047569392</v>
       </c>
       <c r="T5">
-        <v>0.007175343472951031</v>
+        <v>0.01211415047569392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.250639</v>
+        <v>8.084047</v>
       </c>
       <c r="H6">
-        <v>9.751916999999999</v>
+        <v>24.252141</v>
       </c>
       <c r="I6">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="J6">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N6">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q6">
-        <v>1.013070312720666</v>
+        <v>3.679957897646333</v>
       </c>
       <c r="R6">
-        <v>9.117632814485999</v>
+        <v>33.119621078817</v>
       </c>
       <c r="S6">
-        <v>0.0001912442329793198</v>
+        <v>0.001327099499112879</v>
       </c>
       <c r="T6">
-        <v>0.0001912442329793199</v>
+        <v>0.001327099499112879</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.250639</v>
+        <v>8.084047</v>
       </c>
       <c r="H7">
-        <v>9.751916999999999</v>
+        <v>24.252141</v>
       </c>
       <c r="I7">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="J7">
-        <v>0.01077619457448595</v>
+        <v>0.02962461593579789</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N7">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O7">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P7">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q7">
-        <v>2.329638702769</v>
+        <v>2.183802899121333</v>
       </c>
       <c r="R7">
-        <v>20.966748324921</v>
+        <v>19.654226092092</v>
       </c>
       <c r="S7">
-        <v>0.0004397818801278414</v>
+        <v>0.0007875426334194715</v>
       </c>
       <c r="T7">
-        <v>0.0004397818801278416</v>
+        <v>0.0007875426334194714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>719.478119</v>
       </c>
       <c r="I8">
-        <v>0.795047394520396</v>
+        <v>0.8788610848660864</v>
       </c>
       <c r="J8">
-        <v>0.7950473945203959</v>
+        <v>0.8788610848660863</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N8">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O8">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P8">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q8">
-        <v>55.27830330290222</v>
+        <v>145.5809613227509</v>
       </c>
       <c r="R8">
-        <v>497.50472972612</v>
+        <v>1310.228651904758</v>
       </c>
       <c r="S8">
-        <v>0.01043526454464041</v>
+        <v>0.05250071501507215</v>
       </c>
       <c r="T8">
-        <v>0.01043526454464041</v>
+        <v>0.05250071501507213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>719.478119</v>
       </c>
       <c r="I9">
-        <v>0.795047394520396</v>
+        <v>0.8788610848660864</v>
       </c>
       <c r="J9">
-        <v>0.7950473945203959</v>
+        <v>0.8788610848660863</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q9">
         <v>1034.565007420635</v>
@@ -1013,10 +1013,10 @@
         <v>9311.085066785716</v>
       </c>
       <c r="S9">
-        <v>0.1953019339596008</v>
+        <v>0.3730941335023905</v>
       </c>
       <c r="T9">
-        <v>0.1953019339596008</v>
+        <v>0.3730941335023904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>719.478119</v>
       </c>
       <c r="I10">
-        <v>0.795047394520396</v>
+        <v>0.8788610848660864</v>
       </c>
       <c r="J10">
-        <v>0.7950473945203959</v>
+        <v>0.8788610848660863</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N10">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q10">
-        <v>70.82918330898144</v>
+        <v>86.36743247697157</v>
       </c>
       <c r="R10">
-        <v>637.462649780833</v>
+        <v>777.3068922927441</v>
       </c>
       <c r="S10">
-        <v>0.01337091084832997</v>
+        <v>0.03114659992527716</v>
       </c>
       <c r="T10">
-        <v>0.01337091084832998</v>
+        <v>0.03114659992527716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>719.478119</v>
       </c>
       <c r="I11">
-        <v>0.795047394520396</v>
+        <v>0.8788610848660864</v>
       </c>
       <c r="J11">
-        <v>0.7950473945203959</v>
+        <v>0.8788610848660863</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N11">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O11">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P11">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q11">
-        <v>2804.281005359527</v>
+        <v>996.5517007713232</v>
       </c>
       <c r="R11">
-        <v>25238.52904823574</v>
+        <v>8968.965306941907</v>
       </c>
       <c r="S11">
-        <v>0.5293833638142875</v>
+        <v>0.3593854331267172</v>
       </c>
       <c r="T11">
-        <v>0.5293833638142875</v>
+        <v>0.3593854331267171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>719.478119</v>
       </c>
       <c r="I12">
-        <v>0.795047394520396</v>
+        <v>0.8788610848660864</v>
       </c>
       <c r="J12">
-        <v>0.7950473945203959</v>
+        <v>0.8788610848660863</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N12">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q12">
-        <v>74.74242479822244</v>
+        <v>109.1717711107559</v>
       </c>
       <c r="R12">
-        <v>672.6818231840019</v>
+        <v>982.545939996803</v>
       </c>
       <c r="S12">
-        <v>0.01410964029057659</v>
+        <v>0.03937050552970052</v>
       </c>
       <c r="T12">
-        <v>0.01410964029057659</v>
+        <v>0.03937050552970051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>719.478119</v>
       </c>
       <c r="I13">
-        <v>0.795047394520396</v>
+        <v>0.8788610848660864</v>
       </c>
       <c r="J13">
-        <v>0.7950473945203959</v>
+        <v>0.8788610848660863</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N13">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O13">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P13">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q13">
-        <v>171.8763676739497</v>
+        <v>64.78596681944757</v>
       </c>
       <c r="R13">
-        <v>1546.887309065547</v>
+        <v>583.073701375028</v>
       </c>
       <c r="S13">
-        <v>0.03244628106296053</v>
+        <v>0.02336369776692903</v>
       </c>
       <c r="T13">
-        <v>0.03244628106296054</v>
+        <v>0.02336369776692902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1941253333333333</v>
+        <v>24.713026</v>
       </c>
       <c r="H14">
-        <v>0.582376</v>
+        <v>74.139078</v>
       </c>
       <c r="I14">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233909</v>
       </c>
       <c r="J14">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233908</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N14">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O14">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P14">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q14">
-        <v>0.04474459516444445</v>
+        <v>15.00148227137733</v>
       </c>
       <c r="R14">
-        <v>0.40270135648</v>
+        <v>135.013340442396</v>
       </c>
       <c r="S14">
-        <v>8.446744194105923E-06</v>
+        <v>0.005409969396940347</v>
       </c>
       <c r="T14">
-        <v>8.446744194105923E-06</v>
+        <v>0.005409969396940345</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1941253333333333</v>
+        <v>24.713026</v>
       </c>
       <c r="H15">
-        <v>0.582376</v>
+        <v>74.139078</v>
       </c>
       <c r="I15">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233909</v>
       </c>
       <c r="J15">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233908</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q15">
-        <v>0.8374206453964445</v>
+        <v>106.6074057788393</v>
       </c>
       <c r="R15">
-        <v>7.536785808568</v>
+        <v>959.466652009554</v>
       </c>
       <c r="S15">
-        <v>0.0001580856402551089</v>
+        <v>0.03844572105058854</v>
       </c>
       <c r="T15">
-        <v>0.000158085640255109</v>
+        <v>0.03844572105058852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1941253333333333</v>
+        <v>24.713026</v>
       </c>
       <c r="H16">
-        <v>0.582376</v>
+        <v>74.139078</v>
       </c>
       <c r="I16">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233909</v>
       </c>
       <c r="J16">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233908</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N16">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q16">
-        <v>0.05733213473688889</v>
+        <v>8.899786725925335</v>
       </c>
       <c r="R16">
-        <v>0.515989212632</v>
+        <v>80.09808053332802</v>
       </c>
       <c r="S16">
-        <v>1.082298039449761E-05</v>
+        <v>0.003209521096353061</v>
       </c>
       <c r="T16">
-        <v>1.082298039449761E-05</v>
+        <v>0.00320952109635306</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1941253333333333</v>
+        <v>24.713026</v>
       </c>
       <c r="H17">
-        <v>0.582376</v>
+        <v>74.139078</v>
       </c>
       <c r="I17">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233909</v>
       </c>
       <c r="J17">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233908</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N17">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O17">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P17">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q17">
-        <v>2.269903575451556</v>
+        <v>102.6903005434107</v>
       </c>
       <c r="R17">
-        <v>20.429132179064</v>
+        <v>924.212704890696</v>
       </c>
       <c r="S17">
-        <v>0.0004285052703384708</v>
+        <v>0.03703309934661886</v>
       </c>
       <c r="T17">
-        <v>0.0004285052703384709</v>
+        <v>0.03703309934661885</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1941253333333333</v>
+        <v>24.713026</v>
       </c>
       <c r="H18">
-        <v>0.582376</v>
+        <v>74.139078</v>
       </c>
       <c r="I18">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233909</v>
       </c>
       <c r="J18">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233908</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N18">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q18">
-        <v>0.06049967780088888</v>
+        <v>11.24967422918733</v>
       </c>
       <c r="R18">
-        <v>0.544497100208</v>
+        <v>101.247068062686</v>
       </c>
       <c r="S18">
-        <v>1.142093922923712E-05</v>
+        <v>0.004056958652784127</v>
       </c>
       <c r="T18">
-        <v>1.142093922923712E-05</v>
+        <v>0.004056958652784126</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1941253333333333</v>
+        <v>24.713026</v>
       </c>
       <c r="H19">
-        <v>0.582376</v>
+        <v>74.139078</v>
       </c>
       <c r="I19">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233909</v>
       </c>
       <c r="J19">
-        <v>0.00064354496572426</v>
+        <v>0.09056279656233908</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N19">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O19">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P19">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q19">
-        <v>0.1391239967653333</v>
+        <v>6.675910942237334</v>
       </c>
       <c r="R19">
-        <v>1.252115970888</v>
+        <v>60.083198480136</v>
       </c>
       <c r="S19">
-        <v>2.62633913128395E-05</v>
+        <v>0.002407527019054178</v>
       </c>
       <c r="T19">
-        <v>2.626339131283951E-05</v>
+        <v>0.002407527019054177</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>58.07017199999999</v>
+        <v>0.1859616666666667</v>
       </c>
       <c r="H20">
-        <v>174.210516</v>
+        <v>0.557885</v>
       </c>
       <c r="I20">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113788</v>
       </c>
       <c r="J20">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113787</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N20">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O20">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P20">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q20">
-        <v>13.38478751152</v>
+        <v>0.1128838146188889</v>
       </c>
       <c r="R20">
-        <v>120.46308760368</v>
+        <v>1.01595433157</v>
       </c>
       <c r="S20">
-        <v>0.00252673816327458</v>
+        <v>4.070917603011013E-05</v>
       </c>
       <c r="T20">
-        <v>0.00252673816327458</v>
+        <v>4.070917603011012E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>58.07017199999999</v>
+        <v>0.1859616666666667</v>
       </c>
       <c r="H21">
-        <v>174.210516</v>
+        <v>0.557885</v>
       </c>
       <c r="I21">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113788</v>
       </c>
       <c r="J21">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113787</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.941443</v>
       </c>
       <c r="O21">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P21">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q21">
-        <v>250.503940312732</v>
+        <v>0.8022041031172222</v>
       </c>
       <c r="R21">
-        <v>2254.535462814588</v>
+        <v>7.219836928054999</v>
       </c>
       <c r="S21">
-        <v>0.0472893473649891</v>
+        <v>0.0002892980553158158</v>
       </c>
       <c r="T21">
-        <v>0.04728934736498912</v>
+        <v>0.0002892980553158157</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>58.07017199999999</v>
+        <v>0.1859616666666667</v>
       </c>
       <c r="H22">
-        <v>174.210516</v>
+        <v>0.557885</v>
       </c>
       <c r="I22">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113788</v>
       </c>
       <c r="J22">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113787</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N22">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O22">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P22">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q22">
-        <v>17.150192961068</v>
+        <v>0.06696950719555557</v>
       </c>
       <c r="R22">
-        <v>154.351736649612</v>
+        <v>0.6027255647600001</v>
       </c>
       <c r="S22">
-        <v>0.003237559582096981</v>
+        <v>2.415114572693941E-05</v>
       </c>
       <c r="T22">
-        <v>0.003237559582096982</v>
+        <v>2.41511457269394E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>58.07017199999999</v>
+        <v>0.1859616666666667</v>
       </c>
       <c r="H23">
-        <v>174.210516</v>
+        <v>0.557885</v>
       </c>
       <c r="I23">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113788</v>
       </c>
       <c r="J23">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113787</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N23">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O23">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P23">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q23">
-        <v>679.0133404358359</v>
+        <v>0.7727284970911111</v>
       </c>
       <c r="R23">
-        <v>6111.120063922524</v>
+        <v>6.954556473819999</v>
       </c>
       <c r="S23">
-        <v>0.1281820065634307</v>
+        <v>0.0002786682972910516</v>
       </c>
       <c r="T23">
-        <v>0.1281820065634307</v>
+        <v>0.0002786682972910516</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>58.07017199999999</v>
+        <v>0.1859616666666667</v>
       </c>
       <c r="H24">
-        <v>174.210516</v>
+        <v>0.557885</v>
       </c>
       <c r="I24">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113788</v>
       </c>
       <c r="J24">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113787</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N24">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O24">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P24">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q24">
-        <v>18.097723957592</v>
+        <v>0.08465204419388889</v>
       </c>
       <c r="R24">
-        <v>162.879515618328</v>
+        <v>0.7618683977449999</v>
       </c>
       <c r="S24">
-        <v>0.003416431508733259</v>
+        <v>3.052798118164449E-05</v>
       </c>
       <c r="T24">
-        <v>0.00341643150873326</v>
+        <v>3.052798118164448E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>58.07017199999999</v>
+        <v>0.1859616666666667</v>
       </c>
       <c r="H25">
-        <v>174.210516</v>
+        <v>0.557885</v>
       </c>
       <c r="I25">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113788</v>
       </c>
       <c r="J25">
-        <v>0.1925084490913527</v>
+        <v>0.0006814709209113787</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N25">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O25">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P25">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q25">
-        <v>41.61720823741199</v>
+        <v>0.05023518873555555</v>
       </c>
       <c r="R25">
-        <v>374.554874136708</v>
+        <v>0.45211669862</v>
       </c>
       <c r="S25">
-        <v>0.007856365908828121</v>
+        <v>1.811626536581747E-05</v>
       </c>
       <c r="T25">
-        <v>0.007856365908828123</v>
+        <v>1.811626536581747E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.092741</v>
+        <v>0.073687</v>
       </c>
       <c r="H26">
-        <v>0.278223</v>
+        <v>0.221061</v>
       </c>
       <c r="I26">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652327</v>
       </c>
       <c r="J26">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652326</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N26">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O26">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P26">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q26">
-        <v>0.02137618222666667</v>
+        <v>0.04473002311133334</v>
       </c>
       <c r="R26">
-        <v>0.19238564004</v>
+        <v>0.4025702080020001</v>
       </c>
       <c r="S26">
-        <v>4.035328567655144E-06</v>
+        <v>1.613094304810521E-05</v>
       </c>
       <c r="T26">
-        <v>4.035328567655145E-06</v>
+        <v>1.613094304810521E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.092741</v>
+        <v>0.073687</v>
       </c>
       <c r="H27">
-        <v>0.278223</v>
+        <v>0.221061</v>
       </c>
       <c r="I27">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652327</v>
       </c>
       <c r="J27">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652326</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.941443</v>
       </c>
       <c r="O27">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P27">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q27">
-        <v>0.4000674550876667</v>
+        <v>0.3178720367803333</v>
       </c>
       <c r="R27">
-        <v>3.600607095789</v>
+        <v>2.860848331023</v>
       </c>
       <c r="S27">
-        <v>7.552347811155881E-05</v>
+        <v>0.0001146338715078727</v>
       </c>
       <c r="T27">
-        <v>7.552347811155882E-05</v>
+        <v>0.0001146338715078727</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.092741</v>
+        <v>0.073687</v>
       </c>
       <c r="H28">
-        <v>0.278223</v>
+        <v>0.221061</v>
       </c>
       <c r="I28">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652327</v>
       </c>
       <c r="J28">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652326</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N28">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O28">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P28">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q28">
-        <v>0.02738972506233333</v>
+        <v>0.02653655543733334</v>
       </c>
       <c r="R28">
-        <v>0.246507525561</v>
+        <v>0.2388289989360001</v>
       </c>
       <c r="S28">
-        <v>5.170546303931323E-06</v>
+        <v>9.56985117997966E-06</v>
       </c>
       <c r="T28">
-        <v>5.170546303931324E-06</v>
+        <v>9.569851179979657E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.092741</v>
+        <v>0.073687</v>
       </c>
       <c r="H29">
-        <v>0.278223</v>
+        <v>0.221061</v>
       </c>
       <c r="I29">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652327</v>
       </c>
       <c r="J29">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652326</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N29">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O29">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P29">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q29">
-        <v>1.084418627266333</v>
+        <v>0.3061923770946667</v>
       </c>
       <c r="R29">
-        <v>9.759767645397</v>
+        <v>2.755731393852</v>
       </c>
       <c r="S29">
-        <v>0.0002047131437926363</v>
+        <v>0.0001104218476342923</v>
       </c>
       <c r="T29">
-        <v>0.0002047131437926363</v>
+        <v>0.0001104218476342923</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,46 +2279,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.092741</v>
+        <v>0.073687</v>
       </c>
       <c r="H30">
-        <v>0.278223</v>
+        <v>0.221061</v>
       </c>
       <c r="I30">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652327</v>
       </c>
       <c r="J30">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652326</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N30">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O30">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P30">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q30">
-        <v>0.02890297995933333</v>
+        <v>0.03354323120633333</v>
       </c>
       <c r="R30">
-        <v>0.260126819634</v>
+        <v>0.301889080857</v>
       </c>
       <c r="S30">
-        <v>5.456213812341236E-06</v>
+        <v>1.209666158436866E-05</v>
       </c>
       <c r="T30">
-        <v>5.456213812341237E-06</v>
+        <v>1.209666158436866E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.092741</v>
+        <v>0.073687</v>
       </c>
       <c r="H31">
-        <v>0.278223</v>
+        <v>0.221061</v>
       </c>
       <c r="I31">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652327</v>
       </c>
       <c r="J31">
-        <v>0.0003074457240660687</v>
+        <v>0.0002700317148652326</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N31">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O31">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P31">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q31">
-        <v>0.06646478521099999</v>
+        <v>0.01990560968133333</v>
       </c>
       <c r="R31">
-        <v>0.598183066899</v>
+        <v>0.179150487132</v>
       </c>
       <c r="S31">
-        <v>1.254701347794576E-05</v>
+        <v>7.178539910614152E-06</v>
       </c>
       <c r="T31">
-        <v>1.254701347794577E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.2162743333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.648823</v>
-      </c>
-      <c r="I32">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="J32">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.2304933333333333</v>
-      </c>
-      <c r="N32">
-        <v>0.69148</v>
-      </c>
-      <c r="O32">
-        <v>0.01312533644731377</v>
-      </c>
-      <c r="P32">
-        <v>0.01312533644731377</v>
-      </c>
-      <c r="Q32">
-        <v>0.04984979200444445</v>
-      </c>
-      <c r="R32">
-        <v>0.44864812804</v>
-      </c>
-      <c r="S32">
-        <v>9.410487225181648E-06</v>
-      </c>
-      <c r="T32">
-        <v>9.410487225181649E-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.2162743333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.648823</v>
-      </c>
-      <c r="I33">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="J33">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>4.313814333333333</v>
-      </c>
-      <c r="N33">
-        <v>12.941443</v>
-      </c>
-      <c r="O33">
-        <v>0.2456481655127172</v>
-      </c>
-      <c r="P33">
-        <v>0.2456481655127172</v>
-      </c>
-      <c r="Q33">
-        <v>0.9329673190654445</v>
-      </c>
-      <c r="R33">
-        <v>8.396705871589001</v>
-      </c>
-      <c r="S33">
-        <v>0.0001761226413300695</v>
-      </c>
-      <c r="T33">
-        <v>0.0001761226413300695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.2162743333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.648823</v>
-      </c>
-      <c r="I34">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="J34">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.2953356666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.886007</v>
-      </c>
-      <c r="O34">
-        <v>0.01681775318111172</v>
-      </c>
-      <c r="P34">
-        <v>0.01681775318111172</v>
-      </c>
-      <c r="Q34">
-        <v>0.06387352441788889</v>
-      </c>
-      <c r="R34">
-        <v>0.574861719761</v>
-      </c>
-      <c r="S34">
-        <v>1.205784340099716E-05</v>
-      </c>
-      <c r="T34">
-        <v>1.205784340099716E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.2162743333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.648823</v>
-      </c>
-      <c r="I35">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="J35">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>11.69297966666667</v>
-      </c>
-      <c r="N35">
-        <v>35.078939</v>
-      </c>
-      <c r="O35">
-        <v>0.6658513284401523</v>
-      </c>
-      <c r="P35">
-        <v>0.6658513284401524</v>
-      </c>
-      <c r="Q35">
-        <v>2.528891382088556</v>
-      </c>
-      <c r="R35">
-        <v>22.760022438797</v>
-      </c>
-      <c r="S35">
-        <v>0.0004773961753520366</v>
-      </c>
-      <c r="T35">
-        <v>0.0004773961753520367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.2162743333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.648823</v>
-      </c>
-      <c r="I36">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="J36">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.3116526666666666</v>
-      </c>
-      <c r="N36">
-        <v>0.934958</v>
-      </c>
-      <c r="O36">
-        <v>0.0177469172125117</v>
-      </c>
-      <c r="P36">
-        <v>0.0177469172125117</v>
-      </c>
-      <c r="Q36">
-        <v>0.06740247271488889</v>
-      </c>
-      <c r="R36">
-        <v>0.606622254434</v>
-      </c>
-      <c r="S36">
-        <v>1.272402718094722E-05</v>
-      </c>
-      <c r="T36">
-        <v>1.272402718094722E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.2162743333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.648823</v>
-      </c>
-      <c r="I37">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="J37">
-        <v>0.0007169711239750807</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.7166709999999999</v>
-      </c>
-      <c r="N37">
-        <v>2.150013</v>
-      </c>
-      <c r="O37">
-        <v>0.04081049920619313</v>
-      </c>
-      <c r="P37">
-        <v>0.04081049920619314</v>
-      </c>
-      <c r="Q37">
-        <v>0.1549975427443333</v>
-      </c>
-      <c r="R37">
-        <v>1.394977884699</v>
-      </c>
-      <c r="S37">
-        <v>2.925994948584842E-05</v>
-      </c>
-      <c r="T37">
-        <v>2.925994948584843E-05</v>
+        <v>7.17853991061415E-06</v>
       </c>
     </row>
   </sheetData>
